--- a/reports/livrable 2/risque.xlsx
+++ b/reports/livrable 2/risque.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>Type de risque</t>
   </si>
@@ -27,15 +27,9 @@
     <t>Coût en performance associé au risque</t>
   </si>
   <si>
-    <t>Coût estimé du risque (\$)</t>
-  </si>
-  <si>
     <t>Plan de réduction du risque</t>
   </si>
   <si>
-    <t>Probabilité d'occurrence (\%)</t>
-  </si>
-  <si>
     <t>Niveau de priorité (1- faible, 5-élevé)</t>
   </si>
   <si>
@@ -120,18 +114,12 @@
     <t>Accomplissement de la mauvaise tâche ou système non fonctionnel</t>
   </si>
   <si>
-    <t>Tests répétés pour un taux de succès de 100\% lors de la réception et du décodage.</t>
-  </si>
-  <si>
     <t>Correction de la trajectoire erronée, risque de rencontrer les obstacles</t>
   </si>
   <si>
     <t>La trajectoire réelle ne sera pas optimale</t>
   </si>
   <si>
-    <t>Tests rigoureux et taux de succès de l'identification proche de 100\%</t>
-  </si>
-  <si>
     <t>I. Mouhtij</t>
   </si>
   <si>
@@ -162,12 +150,6 @@
     <t>Le chiffre dessiné ne sera pas le bon, le robot peut arrêter sa séquence d'opération avant le moment prévu</t>
   </si>
   <si>
-    <t>Tests répétés pour un taux de succès de près de 100\% lors de la détection des chiffres</t>
-  </si>
-  <si>
-    <t>Tests répétés pour un taux de succès de près de 100\% lors de la résolution du cube</t>
-  </si>
-  <si>
     <t>O. Sylvain</t>
   </si>
   <si>
@@ -189,12 +171,6 @@
     <t>Robot incapable de se déplacer selon la trajectoire prévue et d'effectuer la tâche</t>
   </si>
   <si>
-    <t>Tests répétés pour un taux de succès de près de 100\% lors de la transmission et de la réception de l'information entre le Mac mini et le microcontrôleur</t>
-  </si>
-  <si>
-    <t>Tests répétés pour un taux de succès de près de 100\% lors de la transmission et de la réception de l'information en temps réel entre le Mac mini et la station de base</t>
-  </si>
-  <si>
     <t>Asservissement des moteurs déficient</t>
   </si>
   <si>
@@ -250,6 +226,27 @@
   </si>
   <si>
     <t>F. Valois</t>
+  </si>
+  <si>
+    <t>Probabilité d'occurrence (%)</t>
+  </si>
+  <si>
+    <t>Tests répétés pour un taux de succès de 100% lors de la réception et du décodage.</t>
+  </si>
+  <si>
+    <t>Tests rigoureux et taux de succès de l'identification proche de 100%</t>
+  </si>
+  <si>
+    <t>Tests répétés pour un taux de succès de près de 100% lors de la détection des chiffres</t>
+  </si>
+  <si>
+    <t>Tests répétés pour un taux de succès de près de 100% lors de la résolution du cube</t>
+  </si>
+  <si>
+    <t>Tests répétés pour un taux de succès de près de 100% lors de la transmission et de la réception de l'information en temps réel entre le Mac mini et la station de base</t>
+  </si>
+  <si>
+    <t>Tests répétés pour un taux de succès de près de 100% lors de la transmission et de la réception de l'information entre le Mac mini et le microcontrôleur</t>
   </si>
 </sst>
 </file>
@@ -273,34 +270,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -309,29 +282,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,15 +616,15 @@
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>28</v>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -668,467 +633,440 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>60</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="F4" s="5">
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="4">
+        <v>20</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="G4" s="6">
-        <v>60</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6">
-        <v>25</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5">
-        <v>15</v>
-      </c>
-      <c r="G7" s="6">
-        <v>10</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6">
-        <v>100</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6">
-        <v>15</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="6">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="5">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="6">
-        <v>5</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="6">
-        <v>5</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="6">
-        <v>10</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="6">
-        <v>20</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>130</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="5">
-        <v>4</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="6">
-        <v>5</v>
-      </c>
-      <c r="G17" s="5">
-        <v>100</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="5">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="6">
-        <v>5</v>
-      </c>
-      <c r="G18" s="5">
-        <v>130</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
+    </row>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
